--- a/docs/books_details.xlsx
+++ b/docs/books_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b48f6d361156418/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\A-Comparative-Analysis-of-Amazon-Book-Ratings-using-Collaborative-Filtering\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC104818991841DA5BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A28E84-CFFF-418C-A86A-8FC8B1F4D8EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4189A5-3FA4-4000-BB52-98C4597A71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>Standard Aviation</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -178,13 +175,16 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +216,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,15 +272,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -279,6 +285,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,384 +583,384 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="10">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7">
         <v>49752</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>21.252974999999999</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>201.340431</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>4895</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
